--- a/ProjetoES22/Long-Method.xlsx
+++ b/ProjetoES22/Long-Method.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jreis\Dropbox\2019-2020 1Sem - Engenharia de Software I - SHARED\Projeto\Ficheiros projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\git\ES1-2019-IC1-22\ProjetoES22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6112896D-8A6C-41CA-9C24-D83FEC65CC1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C551C78-42BA-495C-852A-9CE0D5595CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="long-method" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="870">
   <si>
     <t>package</t>
   </si>
@@ -2632,279 +2632,6 @@
   </si>
   <si>
     <t>class</t>
-  </si>
-  <si>
-    <t>0.285714</t>
-  </si>
-  <si>
-    <t>0.294118</t>
-  </si>
-  <si>
-    <t>0.166667</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.023529</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.428571</t>
-  </si>
-  <si>
-    <t>0.095238</t>
-  </si>
-  <si>
-    <t>0.636364</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.066667</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.142857</t>
-  </si>
-  <si>
-    <t>0.666667</t>
-  </si>
-  <si>
-    <t>0.833333</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.333333</t>
-  </si>
-  <si>
-    <t>0.454545</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.064516</t>
-  </si>
-  <si>
-    <t>0.227273</t>
-  </si>
-  <si>
-    <t>0.076923</t>
-  </si>
-  <si>
-    <t>0.153846</t>
-  </si>
-  <si>
-    <t>0.5625</t>
-  </si>
-  <si>
-    <t>0.619048</t>
-  </si>
-  <si>
-    <t>0.466667</t>
-  </si>
-  <si>
-    <t>0.448276</t>
-  </si>
-  <si>
-    <t>0.52381</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>0.222222</t>
-  </si>
-  <si>
-    <t>0.984848</t>
-  </si>
-  <si>
-    <t>0.032258</t>
-  </si>
-  <si>
-    <t>0.181818</t>
-  </si>
-  <si>
-    <t>0.578947</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.214286</t>
-  </si>
-  <si>
-    <t>0.176471</t>
-  </si>
-  <si>
-    <t>0.230769</t>
-  </si>
-  <si>
-    <t>0.944444</t>
-  </si>
-  <si>
-    <t>0.090909</t>
-  </si>
-  <si>
-    <t>0.071429</t>
-  </si>
-  <si>
-    <t>0.177778</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.151515</t>
-  </si>
-  <si>
-    <t>0.171429</t>
-  </si>
-  <si>
-    <t>0.103448</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.178571</t>
-  </si>
-  <si>
-    <t>0.034483</t>
-  </si>
-  <si>
-    <t>0.928571</t>
-  </si>
-  <si>
-    <t>0.923077</t>
-  </si>
-  <si>
-    <t>0.081081</t>
-  </si>
-  <si>
-    <t>0.888889</t>
-  </si>
-  <si>
-    <t>0.083333</t>
-  </si>
-  <si>
-    <t>0.04878</t>
-  </si>
-  <si>
-    <t>0.190476</t>
-  </si>
-  <si>
-    <t>0.146341</t>
-  </si>
-  <si>
-    <t>0.272727</t>
-  </si>
-  <si>
-    <t>0.583333</t>
-  </si>
-  <si>
-    <t>0.692308</t>
-  </si>
-  <si>
-    <t>0.133333</t>
-  </si>
-  <si>
-    <t>0.444444</t>
-  </si>
-  <si>
-    <t>0.115385</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.269231</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.59375</t>
-  </si>
-  <si>
-    <t>0.904762</t>
-  </si>
-  <si>
-    <t>0.232558</t>
-  </si>
-  <si>
-    <t>0.266667</t>
-  </si>
-  <si>
-    <t>0.15873</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.733333</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.529412</t>
-  </si>
-  <si>
-    <t>0.277778</t>
-  </si>
-  <si>
-    <t>0.1875</t>
-  </si>
-  <si>
-    <t>0.660377</t>
-  </si>
-  <si>
-    <t>0.6875</t>
-  </si>
-  <si>
-    <t>0.058824</t>
-  </si>
-  <si>
-    <t>0.365854</t>
-  </si>
-  <si>
-    <t>0.487179</t>
-  </si>
-  <si>
-    <t>0.229167</t>
-  </si>
-  <si>
-    <t>0.818182</t>
-  </si>
-  <si>
-    <t>0.608696</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>0.348837</t>
   </si>
   <si>
     <t>is_feature_envy</t>
@@ -3402,48 +3129,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3459,7 +3186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3758,25 +3485,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C407" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H427" sqref="H427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="34.54296875" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>860</v>
       </c>
@@ -3796,10 +3523,10 @@
         <v>865</v>
       </c>
       <c r="G1" t="s">
-        <v>959</v>
+        <v>868</v>
       </c>
       <c r="H1" t="s">
-        <v>960</v>
+        <v>869</v>
       </c>
       <c r="I1" t="s">
         <v>863</v>
@@ -3811,10 +3538,10 @@
         <v>862</v>
       </c>
       <c r="L1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3852,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3890,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3928,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3966,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4004,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4042,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4064,8 +3791,8 @@
       <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
-        <v>867</v>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -4080,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4118,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4156,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4194,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4232,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4254,8 +3981,8 @@
       <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" t="s">
-        <v>868</v>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -4270,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4292,8 +4019,8 @@
       <c r="G14">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
-        <v>869</v>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -4308,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4330,8 +4057,8 @@
       <c r="G15">
         <v>56</v>
       </c>
-      <c r="H15" t="s">
-        <v>870</v>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -4346,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4368,8 +4095,8 @@
       <c r="G16">
         <v>83</v>
       </c>
-      <c r="H16" t="s">
-        <v>871</v>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -4384,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4422,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4460,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4498,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4536,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4574,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4612,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4634,8 +4361,8 @@
       <c r="G23">
         <v>9</v>
       </c>
-      <c r="H23" t="s">
-        <v>872</v>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -4650,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4688,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4726,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4764,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4802,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4840,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4878,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4900,8 +4627,8 @@
       <c r="G30">
         <v>15</v>
       </c>
-      <c r="H30" t="s">
-        <v>873</v>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -4916,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4954,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4976,8 +4703,8 @@
       <c r="G32">
         <v>19</v>
       </c>
-      <c r="H32" t="s">
-        <v>874</v>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -4992,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5030,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5068,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5106,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5144,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5182,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5220,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5258,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5296,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5334,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5372,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5410,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5432,8 +5159,8 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" t="s">
-        <v>875</v>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -5448,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5470,8 +5197,8 @@
       <c r="G45">
         <v>3</v>
       </c>
-      <c r="H45" t="s">
-        <v>876</v>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -5486,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5524,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5562,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5600,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5638,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5676,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5698,8 +5425,8 @@
       <c r="G51">
         <v>10</v>
       </c>
-      <c r="H51" t="s">
-        <v>869</v>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -5714,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5736,8 +5463,8 @@
       <c r="G52">
         <v>14</v>
       </c>
-      <c r="H52" t="s">
-        <v>877</v>
+      <c r="H52">
+        <v>0</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -5752,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5774,8 +5501,8 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" t="s">
-        <v>878</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -5790,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5812,8 +5539,8 @@
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" t="s">
-        <v>878</v>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -5828,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5866,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5904,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5926,8 +5653,8 @@
       <c r="G57">
         <v>6</v>
       </c>
-      <c r="H57" t="s">
-        <v>879</v>
+      <c r="H57">
+        <v>0</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -5942,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5964,8 +5691,8 @@
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" t="s">
-        <v>880</v>
+      <c r="H58">
+        <v>0</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -5980,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6018,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6056,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6094,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6132,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6154,8 +5881,8 @@
       <c r="G63">
         <v>4</v>
       </c>
-      <c r="H63" t="s">
-        <v>881</v>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -6170,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6192,8 +5919,8 @@
       <c r="G64">
         <v>4</v>
       </c>
-      <c r="H64" t="s">
-        <v>882</v>
+      <c r="H64">
+        <v>0</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
@@ -6208,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6246,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6284,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6322,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6360,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6398,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6436,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6474,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6512,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6550,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6588,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6626,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6664,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6702,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6740,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6762,8 +6489,8 @@
       <c r="G79">
         <v>9</v>
       </c>
-      <c r="H79" t="s">
-        <v>883</v>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -6778,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6816,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6854,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6892,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6930,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6968,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7006,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7044,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7082,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7120,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7158,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7196,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7218,8 +6945,8 @@
       <c r="G91">
         <v>4</v>
       </c>
-      <c r="H91" t="s">
-        <v>884</v>
+      <c r="H91">
+        <v>0</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -7234,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7256,8 +6983,8 @@
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="H92" t="s">
-        <v>876</v>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -7272,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7310,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7348,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7386,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7424,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7462,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7500,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7538,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7576,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7614,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7652,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7690,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7712,8 +7439,8 @@
       <c r="G104">
         <v>4</v>
       </c>
-      <c r="H104" t="s">
-        <v>880</v>
+      <c r="H104">
+        <v>0</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -7728,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7766,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7804,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7842,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7880,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7902,8 +7629,8 @@
       <c r="G109">
         <v>6</v>
       </c>
-      <c r="H109" t="s">
-        <v>885</v>
+      <c r="H109">
+        <v>0</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -7918,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7940,8 +7667,8 @@
       <c r="G110">
         <v>4</v>
       </c>
-      <c r="H110" t="s">
-        <v>875</v>
+      <c r="H110">
+        <v>0</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -7956,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7978,8 +7705,8 @@
       <c r="G111">
         <v>3</v>
       </c>
-      <c r="H111" t="s">
-        <v>886</v>
+      <c r="H111">
+        <v>0</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
@@ -7994,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8016,8 +7743,8 @@
       <c r="G112">
         <v>29</v>
       </c>
-      <c r="H112" t="s">
-        <v>887</v>
+      <c r="H112">
+        <v>0</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -8032,7 +7759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8054,8 +7781,8 @@
       <c r="G113">
         <v>17</v>
       </c>
-      <c r="H113" t="s">
-        <v>888</v>
+      <c r="H113">
+        <v>0</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
@@ -8070,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8108,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8146,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8184,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8222,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8260,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8298,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8320,8 +8047,8 @@
       <c r="G120">
         <v>35</v>
       </c>
-      <c r="H120" t="s">
-        <v>869</v>
+      <c r="H120">
+        <v>0</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
@@ -8336,7 +8063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8358,8 +8085,8 @@
       <c r="G121">
         <v>12</v>
       </c>
-      <c r="H121" t="s">
-        <v>889</v>
+      <c r="H121">
+        <v>0</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
@@ -8374,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8396,8 +8123,8 @@
       <c r="G122">
         <v>24</v>
       </c>
-      <c r="H122" t="s">
-        <v>889</v>
+      <c r="H122">
+        <v>0</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
@@ -8412,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8450,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8488,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8526,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8564,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8602,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8624,8 +8351,8 @@
       <c r="G128">
         <v>2</v>
       </c>
-      <c r="H128" t="s">
-        <v>880</v>
+      <c r="H128">
+        <v>0</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
@@ -8640,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8662,8 +8389,8 @@
       <c r="G129">
         <v>11</v>
       </c>
-      <c r="H129" t="s">
-        <v>890</v>
+      <c r="H129">
+        <v>0</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
@@ -8678,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8700,8 +8427,8 @@
       <c r="G130">
         <v>3</v>
       </c>
-      <c r="H130" t="s">
-        <v>891</v>
+      <c r="H130">
+        <v>0</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
@@ -8716,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8738,8 +8465,8 @@
       <c r="G131">
         <v>5</v>
       </c>
-      <c r="H131" t="s">
-        <v>892</v>
+      <c r="H131">
+        <v>0</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
@@ -8754,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8792,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8830,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8868,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8906,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8944,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8982,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9020,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9058,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9096,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9134,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9172,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9194,8 +8921,8 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143" t="s">
-        <v>893</v>
+      <c r="H143">
+        <v>0</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
@@ -9210,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9232,8 +8959,8 @@
       <c r="G144">
         <v>3</v>
       </c>
-      <c r="H144" t="s">
-        <v>876</v>
+      <c r="H144">
+        <v>0</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -9248,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9270,8 +8997,8 @@
       <c r="G145">
         <v>10</v>
       </c>
-      <c r="H145" t="s">
-        <v>869</v>
+      <c r="H145">
+        <v>0</v>
       </c>
       <c r="I145" t="b">
         <v>0</v>
@@ -9286,7 +9013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9308,8 +9035,8 @@
       <c r="G146">
         <v>16</v>
       </c>
-      <c r="H146" t="s">
-        <v>894</v>
+      <c r="H146">
+        <v>0</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
@@ -9324,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9346,8 +9073,8 @@
       <c r="G147">
         <v>12</v>
       </c>
-      <c r="H147" t="s">
-        <v>895</v>
+      <c r="H147">
+        <v>0</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
@@ -9362,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9400,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9438,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9476,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9498,8 +9225,8 @@
       <c r="G151">
         <v>2</v>
       </c>
-      <c r="H151" t="s">
-        <v>896</v>
+      <c r="H151">
+        <v>0</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
@@ -9514,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9552,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9590,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9628,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9650,8 +9377,8 @@
       <c r="G155">
         <v>7</v>
       </c>
-      <c r="H155" t="s">
-        <v>879</v>
+      <c r="H155">
+        <v>0</v>
       </c>
       <c r="I155" t="b">
         <v>0</v>
@@ -9666,7 +9393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9688,8 +9415,8 @@
       <c r="G156">
         <v>5</v>
       </c>
-      <c r="H156" t="s">
-        <v>869</v>
+      <c r="H156">
+        <v>0</v>
       </c>
       <c r="I156" t="b">
         <v>0</v>
@@ -9704,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9726,8 +9453,8 @@
       <c r="G157">
         <v>14</v>
       </c>
-      <c r="H157" t="s">
-        <v>897</v>
+      <c r="H157">
+        <v>0</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
@@ -9742,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9780,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9818,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9840,8 +9567,8 @@
       <c r="G160">
         <v>1</v>
       </c>
-      <c r="H160" t="s">
-        <v>898</v>
+      <c r="H160">
+        <v>0</v>
       </c>
       <c r="I160" t="b">
         <v>0</v>
@@ -9856,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9878,8 +9605,8 @@
       <c r="G161">
         <v>30</v>
       </c>
-      <c r="H161" t="s">
-        <v>899</v>
+      <c r="H161">
+        <v>0</v>
       </c>
       <c r="I161" t="b">
         <v>0</v>
@@ -9894,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9932,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9970,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9992,8 +9719,8 @@
       <c r="G164">
         <v>9</v>
       </c>
-      <c r="H164" t="s">
-        <v>900</v>
+      <c r="H164">
+        <v>0</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
@@ -10008,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10046,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10084,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10122,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10160,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10198,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10236,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10258,8 +9985,8 @@
       <c r="G171">
         <v>8</v>
       </c>
-      <c r="H171" t="s">
-        <v>901</v>
+      <c r="H171">
+        <v>0</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
@@ -10274,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10296,8 +10023,8 @@
       <c r="G172">
         <v>6</v>
       </c>
-      <c r="H172" t="s">
-        <v>879</v>
+      <c r="H172">
+        <v>0</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
@@ -10312,7 +10039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10334,8 +10061,8 @@
       <c r="G173">
         <v>18</v>
       </c>
-      <c r="H173" t="s">
-        <v>884</v>
+      <c r="H173">
+        <v>0</v>
       </c>
       <c r="I173" t="b">
         <v>1</v>
@@ -10350,7 +10077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10388,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10426,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10464,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10502,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10540,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10578,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10616,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10654,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10676,8 +10403,8 @@
       <c r="G182">
         <v>21</v>
       </c>
-      <c r="H182" t="s">
-        <v>902</v>
+      <c r="H182">
+        <v>0</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>
@@ -10692,7 +10419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10714,8 +10441,8 @@
       <c r="G183">
         <v>11</v>
       </c>
-      <c r="H183" t="s">
-        <v>903</v>
+      <c r="H183">
+        <v>0</v>
       </c>
       <c r="I183" t="b">
         <v>1</v>
@@ -10730,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10768,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10790,8 +10517,8 @@
       <c r="G185">
         <v>2</v>
       </c>
-      <c r="H185" t="s">
-        <v>880</v>
+      <c r="H185">
+        <v>0</v>
       </c>
       <c r="I185" t="b">
         <v>0</v>
@@ -10806,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10844,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10882,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10920,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10958,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10996,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11034,7 +10761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11072,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11110,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11132,8 +10859,8 @@
       <c r="G194">
         <v>5</v>
       </c>
-      <c r="H194" t="s">
-        <v>867</v>
+      <c r="H194">
+        <v>0</v>
       </c>
       <c r="I194" t="b">
         <v>0</v>
@@ -11148,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11186,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11224,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11262,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11300,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11322,8 +11049,8 @@
       <c r="G199">
         <v>1</v>
       </c>
-      <c r="H199" t="s">
-        <v>880</v>
+      <c r="H199">
+        <v>0</v>
       </c>
       <c r="I199" t="b">
         <v>1</v>
@@ -11338,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11376,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11414,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11452,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11490,7 +11217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11528,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11566,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11588,8 +11315,8 @@
       <c r="G206">
         <v>11</v>
       </c>
-      <c r="H206" t="s">
-        <v>904</v>
+      <c r="H206">
+        <v>0</v>
       </c>
       <c r="I206" t="b">
         <v>0</v>
@@ -11604,7 +11331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11626,8 +11353,8 @@
       <c r="G207">
         <v>10</v>
       </c>
-      <c r="H207" t="s">
-        <v>905</v>
+      <c r="H207">
+        <v>0</v>
       </c>
       <c r="I207" t="b">
         <v>1</v>
@@ -11642,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11664,8 +11391,8 @@
       <c r="G208">
         <v>8</v>
       </c>
-      <c r="H208" t="s">
-        <v>906</v>
+      <c r="H208">
+        <v>0</v>
       </c>
       <c r="I208" t="b">
         <v>1</v>
@@ -11680,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11718,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11756,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11794,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11832,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11870,7 +11597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11908,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11930,8 +11657,8 @@
       <c r="G215">
         <v>10</v>
       </c>
-      <c r="H215" t="s">
-        <v>907</v>
+      <c r="H215">
+        <v>0</v>
       </c>
       <c r="I215" t="b">
         <v>0</v>
@@ -11946,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11984,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12022,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12044,8 +11771,8 @@
       <c r="G218">
         <v>9</v>
       </c>
-      <c r="H218" t="s">
-        <v>873</v>
+      <c r="H218">
+        <v>0</v>
       </c>
       <c r="I218" t="b">
         <v>1</v>
@@ -12060,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12098,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12136,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12174,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12196,8 +11923,8 @@
       <c r="G222">
         <v>13</v>
       </c>
-      <c r="H222" t="s">
-        <v>908</v>
+      <c r="H222">
+        <v>0</v>
       </c>
       <c r="I222" t="b">
         <v>0</v>
@@ -12212,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12234,8 +11961,8 @@
       <c r="G223">
         <v>11</v>
       </c>
-      <c r="H223" t="s">
-        <v>890</v>
+      <c r="H223">
+        <v>0</v>
       </c>
       <c r="I223" t="b">
         <v>0</v>
@@ -12250,7 +11977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12272,8 +11999,8 @@
       <c r="G224">
         <v>32</v>
       </c>
-      <c r="H224" t="s">
-        <v>909</v>
+      <c r="H224">
+        <v>0</v>
       </c>
       <c r="I224" t="b">
         <v>1</v>
@@ -12288,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12310,8 +12037,8 @@
       <c r="G225">
         <v>4</v>
       </c>
-      <c r="H225" t="s">
-        <v>910</v>
+      <c r="H225">
+        <v>0</v>
       </c>
       <c r="I225" t="b">
         <v>1</v>
@@ -12326,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12348,8 +12075,8 @@
       <c r="G226">
         <v>28</v>
       </c>
-      <c r="H226" t="s">
-        <v>911</v>
+      <c r="H226">
+        <v>0</v>
       </c>
       <c r="I226" t="b">
         <v>1</v>
@@ -12364,7 +12091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12386,8 +12113,8 @@
       <c r="G227">
         <v>29</v>
       </c>
-      <c r="H227" t="s">
-        <v>912</v>
+      <c r="H227">
+        <v>0</v>
       </c>
       <c r="I227" t="b">
         <v>1</v>
@@ -12402,7 +12129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12424,8 +12151,8 @@
       <c r="G228">
         <v>52</v>
       </c>
-      <c r="H228" t="s">
-        <v>913</v>
+      <c r="H228">
+        <v>0</v>
       </c>
       <c r="I228" t="b">
         <v>1</v>
@@ -12440,7 +12167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12462,8 +12189,8 @@
       <c r="G229">
         <v>16</v>
       </c>
-      <c r="H229" t="s">
-        <v>914</v>
+      <c r="H229">
+        <v>0</v>
       </c>
       <c r="I229" t="b">
         <v>1</v>
@@ -12478,7 +12205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12500,8 +12227,8 @@
       <c r="G230">
         <v>22</v>
       </c>
-      <c r="H230" t="s">
-        <v>890</v>
+      <c r="H230">
+        <v>0</v>
       </c>
       <c r="I230" t="b">
         <v>1</v>
@@ -12516,7 +12243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12538,8 +12265,8 @@
       <c r="G231">
         <v>42</v>
       </c>
-      <c r="H231" t="s">
-        <v>915</v>
+      <c r="H231">
+        <v>0</v>
       </c>
       <c r="I231" t="b">
         <v>1</v>
@@ -12554,7 +12281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12592,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12630,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12668,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12690,8 +12417,8 @@
       <c r="G235">
         <v>8</v>
       </c>
-      <c r="H235" t="s">
-        <v>914</v>
+      <c r="H235">
+        <v>0</v>
       </c>
       <c r="I235" t="b">
         <v>0</v>
@@ -12706,7 +12433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12728,8 +12455,8 @@
       <c r="G236">
         <v>18</v>
       </c>
-      <c r="H236" t="s">
-        <v>872</v>
+      <c r="H236">
+        <v>0</v>
       </c>
       <c r="I236" t="b">
         <v>0</v>
@@ -12744,7 +12471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12782,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12820,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12858,7 +12585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12896,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12934,7 +12661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12956,8 +12683,8 @@
       <c r="G242">
         <v>13</v>
       </c>
-      <c r="H242" t="s">
-        <v>914</v>
+      <c r="H242">
+        <v>0</v>
       </c>
       <c r="I242" t="b">
         <v>0</v>
@@ -12972,7 +12699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12994,8 +12721,8 @@
       <c r="G243">
         <v>18</v>
       </c>
-      <c r="H243" t="s">
-        <v>879</v>
+      <c r="H243">
+        <v>0</v>
       </c>
       <c r="I243" t="b">
         <v>1</v>
@@ -13010,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -13032,8 +12759,8 @@
       <c r="G244">
         <v>3</v>
       </c>
-      <c r="H244" t="s">
-        <v>916</v>
+      <c r="H244">
+        <v>0</v>
       </c>
       <c r="I244" t="b">
         <v>1</v>
@@ -13048,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -13070,8 +12797,8 @@
       <c r="G245">
         <v>19</v>
       </c>
-      <c r="H245" t="s">
-        <v>917</v>
+      <c r="H245">
+        <v>0</v>
       </c>
       <c r="I245" t="b">
         <v>1</v>
@@ -13086,7 +12813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -13124,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -13162,7 +12889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13200,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13222,8 +12949,8 @@
       <c r="G249">
         <v>7</v>
       </c>
-      <c r="H249" t="s">
-        <v>914</v>
+      <c r="H249">
+        <v>0</v>
       </c>
       <c r="I249" t="b">
         <v>0</v>
@@ -13238,7 +12965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13260,8 +12987,8 @@
       <c r="G250">
         <v>7</v>
       </c>
-      <c r="H250" t="s">
-        <v>914</v>
+      <c r="H250">
+        <v>0</v>
       </c>
       <c r="I250" t="b">
         <v>0</v>
@@ -13276,7 +13003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -13298,8 +13025,8 @@
       <c r="G251">
         <v>13</v>
       </c>
-      <c r="H251" t="s">
-        <v>915</v>
+      <c r="H251">
+        <v>0</v>
       </c>
       <c r="I251" t="b">
         <v>1</v>
@@ -13314,7 +13041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13336,8 +13063,8 @@
       <c r="G252">
         <v>31</v>
       </c>
-      <c r="H252" t="s">
-        <v>918</v>
+      <c r="H252">
+        <v>0</v>
       </c>
       <c r="I252" t="b">
         <v>1</v>
@@ -13352,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13374,8 +13101,8 @@
       <c r="G253">
         <v>13</v>
       </c>
-      <c r="H253" t="s">
-        <v>914</v>
+      <c r="H253">
+        <v>0</v>
       </c>
       <c r="I253" t="b">
         <v>1</v>
@@ -13390,7 +13117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13412,8 +13139,8 @@
       <c r="G254">
         <v>22</v>
       </c>
-      <c r="H254" t="s">
-        <v>919</v>
+      <c r="H254">
+        <v>0</v>
       </c>
       <c r="I254" t="b">
         <v>1</v>
@@ -13428,7 +13155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13466,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13504,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13526,8 +13253,8 @@
       <c r="G257">
         <v>1</v>
       </c>
-      <c r="H257" t="s">
-        <v>878</v>
+      <c r="H257">
+        <v>0</v>
       </c>
       <c r="I257" t="b">
         <v>0</v>
@@ -13542,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13564,8 +13291,8 @@
       <c r="G258">
         <v>1</v>
       </c>
-      <c r="H258" t="s">
-        <v>920</v>
+      <c r="H258">
+        <v>0</v>
       </c>
       <c r="I258" t="b">
         <v>1</v>
@@ -13580,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13602,8 +13329,8 @@
       <c r="G259">
         <v>1</v>
       </c>
-      <c r="H259" t="s">
-        <v>921</v>
+      <c r="H259">
+        <v>0</v>
       </c>
       <c r="I259" t="b">
         <v>1</v>
@@ -13618,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13640,8 +13367,8 @@
       <c r="G260">
         <v>34</v>
       </c>
-      <c r="H260" t="s">
-        <v>922</v>
+      <c r="H260">
+        <v>0</v>
       </c>
       <c r="I260" t="b">
         <v>0</v>
@@ -13656,7 +13383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13694,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13732,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13770,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13792,8 +13519,8 @@
       <c r="G264">
         <v>11</v>
       </c>
-      <c r="H264" t="s">
-        <v>903</v>
+      <c r="H264">
+        <v>0</v>
       </c>
       <c r="I264" t="b">
         <v>1</v>
@@ -13808,7 +13535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13830,8 +13557,8 @@
       <c r="G265">
         <v>19</v>
       </c>
-      <c r="H265" t="s">
-        <v>874</v>
+      <c r="H265">
+        <v>0</v>
       </c>
       <c r="I265" t="b">
         <v>0</v>
@@ -13846,7 +13573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13868,8 +13595,8 @@
       <c r="G266">
         <v>2</v>
       </c>
-      <c r="H266" t="s">
-        <v>923</v>
+      <c r="H266">
+        <v>0</v>
       </c>
       <c r="I266" t="b">
         <v>1</v>
@@ -13884,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13922,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13960,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13998,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -14020,8 +13747,8 @@
       <c r="G270">
         <v>2</v>
       </c>
-      <c r="H270" t="s">
-        <v>880</v>
+      <c r="H270">
+        <v>0</v>
       </c>
       <c r="I270" t="b">
         <v>0</v>
@@ -14036,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -14074,7 +13801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -14112,7 +13839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -14134,8 +13861,8 @@
       <c r="G273">
         <v>6</v>
       </c>
-      <c r="H273" t="s">
-        <v>884</v>
+      <c r="H273">
+        <v>0</v>
       </c>
       <c r="I273" t="b">
         <v>0</v>
@@ -14150,7 +13877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -14188,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -14226,7 +13953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -14264,7 +13991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14286,8 +14013,8 @@
       <c r="G277">
         <v>10</v>
       </c>
-      <c r="H277" t="s">
-        <v>907</v>
+      <c r="H277">
+        <v>0</v>
       </c>
       <c r="I277" t="b">
         <v>0</v>
@@ -14302,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -14324,8 +14051,8 @@
       <c r="G278">
         <v>2</v>
       </c>
-      <c r="H278" t="s">
-        <v>873</v>
+      <c r="H278">
+        <v>0</v>
       </c>
       <c r="I278" t="b">
         <v>1</v>
@@ -14340,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14362,8 +14089,8 @@
       <c r="G279">
         <v>11</v>
       </c>
-      <c r="H279" t="s">
-        <v>924</v>
+      <c r="H279">
+        <v>0</v>
       </c>
       <c r="I279" t="b">
         <v>0</v>
@@ -14378,7 +14105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -14416,7 +14143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -14454,7 +14181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -14476,8 +14203,8 @@
       <c r="G282">
         <v>35</v>
       </c>
-      <c r="H282" t="s">
-        <v>925</v>
+      <c r="H282">
+        <v>0</v>
       </c>
       <c r="I282" t="b">
         <v>1</v>
@@ -14492,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -14514,8 +14241,8 @@
       <c r="G283">
         <v>12</v>
       </c>
-      <c r="H283" t="s">
-        <v>868</v>
+      <c r="H283">
+        <v>0</v>
       </c>
       <c r="I283" t="b">
         <v>1</v>
@@ -14530,7 +14257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -14552,8 +14279,8 @@
       <c r="G284">
         <v>15</v>
       </c>
-      <c r="H284" t="s">
-        <v>926</v>
+      <c r="H284">
+        <v>0</v>
       </c>
       <c r="I284" t="b">
         <v>1</v>
@@ -14568,7 +14295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -14606,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -14628,8 +14355,8 @@
       <c r="G286">
         <v>35</v>
       </c>
-      <c r="H286" t="s">
-        <v>927</v>
+      <c r="H286">
+        <v>0</v>
       </c>
       <c r="I286" t="b">
         <v>1</v>
@@ -14644,7 +14371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -14682,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14720,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14758,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14796,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14818,8 +14545,8 @@
       <c r="G291">
         <v>5</v>
       </c>
-      <c r="H291" t="s">
-        <v>914</v>
+      <c r="H291">
+        <v>0</v>
       </c>
       <c r="I291" t="b">
         <v>0</v>
@@ -14834,7 +14561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14856,8 +14583,8 @@
       <c r="G292">
         <v>8</v>
       </c>
-      <c r="H292" t="s">
-        <v>928</v>
+      <c r="H292">
+        <v>0</v>
       </c>
       <c r="I292" t="b">
         <v>1</v>
@@ -14872,7 +14599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14894,8 +14621,8 @@
       <c r="G293">
         <v>10</v>
       </c>
-      <c r="H293" t="s">
-        <v>873</v>
+      <c r="H293">
+        <v>0</v>
       </c>
       <c r="I293" t="b">
         <v>1</v>
@@ -14910,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14948,7 +14675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14986,7 +14713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -15024,7 +14751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -15062,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -15100,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -15138,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -15160,8 +14887,8 @@
       <c r="G300">
         <v>10</v>
       </c>
-      <c r="H300" t="s">
-        <v>916</v>
+      <c r="H300">
+        <v>0</v>
       </c>
       <c r="I300" t="b">
         <v>1</v>
@@ -15176,7 +14903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -15198,8 +14925,8 @@
       <c r="G301">
         <v>3</v>
       </c>
-      <c r="H301" t="s">
-        <v>916</v>
+      <c r="H301">
+        <v>0</v>
       </c>
       <c r="I301" t="b">
         <v>1</v>
@@ -15214,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -15236,8 +14963,8 @@
       <c r="G302">
         <v>4</v>
       </c>
-      <c r="H302" t="s">
-        <v>880</v>
+      <c r="H302">
+        <v>0</v>
       </c>
       <c r="I302" t="b">
         <v>1</v>
@@ -15252,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -15290,7 +15017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -15328,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -15366,7 +15093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -15404,7 +15131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -15442,7 +15169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15480,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15502,8 +15229,8 @@
       <c r="G309">
         <v>10</v>
       </c>
-      <c r="H309" t="s">
-        <v>907</v>
+      <c r="H309">
+        <v>0</v>
       </c>
       <c r="I309" t="b">
         <v>1</v>
@@ -15518,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15556,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15578,8 +15305,8 @@
       <c r="G311">
         <v>1</v>
       </c>
-      <c r="H311" t="s">
-        <v>896</v>
+      <c r="H311">
+        <v>0</v>
       </c>
       <c r="I311" t="b">
         <v>0</v>
@@ -15594,7 +15321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15616,8 +15343,8 @@
       <c r="G312">
         <v>5</v>
       </c>
-      <c r="H312" t="s">
-        <v>929</v>
+      <c r="H312">
+        <v>0</v>
       </c>
       <c r="I312" t="b">
         <v>0</v>
@@ -15632,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15670,7 +15397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15708,7 +15435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15730,8 +15457,8 @@
       <c r="G315">
         <v>4</v>
       </c>
-      <c r="H315" t="s">
-        <v>930</v>
+      <c r="H315">
+        <v>0</v>
       </c>
       <c r="I315" t="b">
         <v>1</v>
@@ -15746,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15768,8 +15495,8 @@
       <c r="G316">
         <v>0</v>
       </c>
-      <c r="H316" t="s">
-        <v>931</v>
+      <c r="H316">
+        <v>0</v>
       </c>
       <c r="I316" t="b">
         <v>1</v>
@@ -15784,7 +15511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15806,8 +15533,8 @@
       <c r="G317">
         <v>1</v>
       </c>
-      <c r="H317" t="s">
-        <v>876</v>
+      <c r="H317">
+        <v>0</v>
       </c>
       <c r="I317" t="b">
         <v>1</v>
@@ -15822,7 +15549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15844,8 +15571,8 @@
       <c r="G318">
         <v>5</v>
       </c>
-      <c r="H318" t="s">
-        <v>932</v>
+      <c r="H318">
+        <v>0</v>
       </c>
       <c r="I318" t="b">
         <v>1</v>
@@ -15860,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15882,8 +15609,8 @@
       <c r="G319">
         <v>5</v>
       </c>
-      <c r="H319" t="s">
-        <v>867</v>
+      <c r="H319">
+        <v>0</v>
       </c>
       <c r="I319" t="b">
         <v>1</v>
@@ -15898,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15920,8 +15647,8 @@
       <c r="G320">
         <v>23</v>
       </c>
-      <c r="H320" t="s">
-        <v>933</v>
+      <c r="H320">
+        <v>0</v>
       </c>
       <c r="I320" t="b">
         <v>1</v>
@@ -15936,7 +15663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15958,8 +15685,8 @@
       <c r="G321">
         <v>13</v>
       </c>
-      <c r="H321" t="s">
-        <v>900</v>
+      <c r="H321">
+        <v>0</v>
       </c>
       <c r="I321" t="b">
         <v>1</v>
@@ -15974,7 +15701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15996,8 +15723,8 @@
       <c r="G322">
         <v>5</v>
       </c>
-      <c r="H322" t="s">
-        <v>880</v>
+      <c r="H322">
+        <v>0</v>
       </c>
       <c r="I322" t="b">
         <v>1</v>
@@ -16012,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -16034,8 +15761,8 @@
       <c r="G323">
         <v>12</v>
       </c>
-      <c r="H323" t="s">
-        <v>884</v>
+      <c r="H323">
+        <v>0</v>
       </c>
       <c r="I323" t="b">
         <v>1</v>
@@ -16050,7 +15777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -16072,8 +15799,8 @@
       <c r="G324">
         <v>18</v>
       </c>
-      <c r="H324" t="s">
-        <v>934</v>
+      <c r="H324">
+        <v>0</v>
       </c>
       <c r="I324" t="b">
         <v>1</v>
@@ -16088,7 +15815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -16110,8 +15837,8 @@
       <c r="G325">
         <v>19</v>
       </c>
-      <c r="H325" t="s">
-        <v>935</v>
+      <c r="H325">
+        <v>0</v>
       </c>
       <c r="I325" t="b">
         <v>1</v>
@@ -16126,7 +15853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -16164,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -16202,7 +15929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -16240,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -16278,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16300,8 +16027,8 @@
       <c r="G330">
         <v>39</v>
       </c>
-      <c r="H330" t="s">
-        <v>936</v>
+      <c r="H330">
+        <v>0</v>
       </c>
       <c r="I330" t="b">
         <v>1</v>
@@ -16316,7 +16043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -16338,8 +16065,8 @@
       <c r="G331">
         <v>14</v>
       </c>
-      <c r="H331" t="s">
-        <v>877</v>
+      <c r="H331">
+        <v>0</v>
       </c>
       <c r="I331" t="b">
         <v>1</v>
@@ -16354,7 +16081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -16392,7 +16119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -16430,7 +16157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -16452,8 +16179,8 @@
       <c r="G334">
         <v>13</v>
       </c>
-      <c r="H334" t="s">
-        <v>904</v>
+      <c r="H334">
+        <v>0</v>
       </c>
       <c r="I334" t="b">
         <v>1</v>
@@ -16468,7 +16195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16490,8 +16217,8 @@
       <c r="G335">
         <v>11</v>
       </c>
-      <c r="H335" t="s">
-        <v>890</v>
+      <c r="H335">
+        <v>0</v>
       </c>
       <c r="I335" t="b">
         <v>1</v>
@@ -16506,7 +16233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16528,8 +16255,8 @@
       <c r="G336">
         <v>11</v>
       </c>
-      <c r="H336" t="s">
-        <v>937</v>
+      <c r="H336">
+        <v>0</v>
       </c>
       <c r="I336" t="b">
         <v>1</v>
@@ -16544,7 +16271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16566,8 +16293,8 @@
       <c r="G337">
         <v>2</v>
       </c>
-      <c r="H337" t="s">
-        <v>938</v>
+      <c r="H337">
+        <v>0</v>
       </c>
       <c r="I337" t="b">
         <v>1</v>
@@ -16582,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16620,7 +16347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16642,8 +16369,8 @@
       <c r="G339">
         <v>33</v>
       </c>
-      <c r="H339" t="s">
-        <v>939</v>
+      <c r="H339">
+        <v>0</v>
       </c>
       <c r="I339" t="b">
         <v>1</v>
@@ -16658,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16696,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16718,8 +16445,8 @@
       <c r="G341">
         <v>11</v>
       </c>
-      <c r="H341" t="s">
-        <v>940</v>
+      <c r="H341">
+        <v>0</v>
       </c>
       <c r="I341" t="b">
         <v>0</v>
@@ -16734,7 +16461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16772,7 +16499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16794,8 +16521,8 @@
       <c r="G343">
         <v>8</v>
       </c>
-      <c r="H343" t="s">
-        <v>916</v>
+      <c r="H343">
+        <v>0</v>
       </c>
       <c r="I343" t="b">
         <v>1</v>
@@ -16810,7 +16537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16848,7 +16575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16886,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16924,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16946,8 +16673,8 @@
       <c r="G347">
         <v>7</v>
       </c>
-      <c r="H347" t="s">
-        <v>897</v>
+      <c r="H347">
+        <v>0</v>
       </c>
       <c r="I347" t="b">
         <v>0</v>
@@ -16962,7 +16689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16984,8 +16711,8 @@
       <c r="G348">
         <v>1</v>
       </c>
-      <c r="H348" t="s">
-        <v>882</v>
+      <c r="H348">
+        <v>0</v>
       </c>
       <c r="I348" t="b">
         <v>1</v>
@@ -17000,7 +16727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
@@ -17022,8 +16749,8 @@
       <c r="G349">
         <v>52</v>
       </c>
-      <c r="H349" t="s">
-        <v>941</v>
+      <c r="H349">
+        <v>0</v>
       </c>
       <c r="I349" t="b">
         <v>1</v>
@@ -17038,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
@@ -17060,8 +16787,8 @@
       <c r="G350">
         <v>7</v>
       </c>
-      <c r="H350" t="s">
-        <v>942</v>
+      <c r="H350">
+        <v>0</v>
       </c>
       <c r="I350" t="b">
         <v>1</v>
@@ -17076,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
@@ -17114,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
@@ -17152,7 +16879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
@@ -17190,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
@@ -17228,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
@@ -17250,8 +16977,8 @@
       <c r="G355">
         <v>16</v>
       </c>
-      <c r="H355" t="s">
-        <v>928</v>
+      <c r="H355">
+        <v>0</v>
       </c>
       <c r="I355" t="b">
         <v>1</v>
@@ -17266,7 +16993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
@@ -17304,7 +17031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
@@ -17342,7 +17069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>357</v>
       </c>
@@ -17380,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>358</v>
       </c>
@@ -17402,8 +17129,8 @@
       <c r="G359">
         <v>19</v>
       </c>
-      <c r="H359" t="s">
-        <v>917</v>
+      <c r="H359">
+        <v>0</v>
       </c>
       <c r="I359" t="b">
         <v>0</v>
@@ -17418,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>359</v>
       </c>
@@ -17440,8 +17167,8 @@
       <c r="G360">
         <v>2</v>
       </c>
-      <c r="H360" t="s">
-        <v>876</v>
+      <c r="H360">
+        <v>0</v>
       </c>
       <c r="I360" t="b">
         <v>1</v>
@@ -17456,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>360</v>
       </c>
@@ -17494,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>361</v>
       </c>
@@ -17532,7 +17259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>362</v>
       </c>
@@ -17570,7 +17297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17592,8 +17319,8 @@
       <c r="G364">
         <v>4</v>
       </c>
-      <c r="H364" t="s">
-        <v>943</v>
+      <c r="H364">
+        <v>0</v>
       </c>
       <c r="I364" t="b">
         <v>0</v>
@@ -17608,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17630,8 +17357,8 @@
       <c r="G365">
         <v>5</v>
       </c>
-      <c r="H365" t="s">
-        <v>944</v>
+      <c r="H365">
+        <v>0</v>
       </c>
       <c r="I365" t="b">
         <v>1</v>
@@ -17646,7 +17373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17684,7 +17411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17722,7 +17449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>367</v>
       </c>
@@ -17760,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>368</v>
       </c>
@@ -17782,8 +17509,8 @@
       <c r="G369">
         <v>3</v>
       </c>
-      <c r="H369" t="s">
-        <v>876</v>
+      <c r="H369">
+        <v>0</v>
       </c>
       <c r="I369" t="b">
         <v>1</v>
@@ -17798,7 +17525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>369</v>
       </c>
@@ -17820,8 +17547,8 @@
       <c r="G370">
         <v>8</v>
       </c>
-      <c r="H370" t="s">
-        <v>945</v>
+      <c r="H370">
+        <v>0</v>
       </c>
       <c r="I370" t="b">
         <v>1</v>
@@ -17836,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>370</v>
       </c>
@@ -17858,8 +17585,8 @@
       <c r="G371">
         <v>10</v>
       </c>
-      <c r="H371" t="s">
-        <v>946</v>
+      <c r="H371">
+        <v>0</v>
       </c>
       <c r="I371" t="b">
         <v>1</v>
@@ -17874,7 +17601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>371</v>
       </c>
@@ -17912,7 +17639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>372</v>
       </c>
@@ -17950,7 +17677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>373</v>
       </c>
@@ -17988,7 +17715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>374</v>
       </c>
@@ -18010,8 +17737,8 @@
       <c r="G375">
         <v>13</v>
       </c>
-      <c r="H375" t="s">
-        <v>947</v>
+      <c r="H375">
+        <v>0</v>
       </c>
       <c r="I375" t="b">
         <v>0</v>
@@ -18026,7 +17753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>375</v>
       </c>
@@ -18048,8 +17775,8 @@
       <c r="G376">
         <v>10</v>
       </c>
-      <c r="H376" t="s">
-        <v>867</v>
+      <c r="H376">
+        <v>0</v>
       </c>
       <c r="I376" t="b">
         <v>0</v>
@@ -18064,7 +17791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>376</v>
       </c>
@@ -18086,8 +17813,8 @@
       <c r="G377">
         <v>13</v>
       </c>
-      <c r="H377" t="s">
-        <v>948</v>
+      <c r="H377">
+        <v>0</v>
       </c>
       <c r="I377" t="b">
         <v>1</v>
@@ -18102,7 +17829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>377</v>
       </c>
@@ -18124,8 +17851,8 @@
       <c r="G378">
         <v>3</v>
       </c>
-      <c r="H378" t="s">
-        <v>949</v>
+      <c r="H378">
+        <v>0</v>
       </c>
       <c r="I378" t="b">
         <v>1</v>
@@ -18140,7 +17867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>378</v>
       </c>
@@ -18178,7 +17905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>379</v>
       </c>
@@ -18200,8 +17927,8 @@
       <c r="G380">
         <v>5</v>
       </c>
-      <c r="H380" t="s">
-        <v>869</v>
+      <c r="H380">
+        <v>0</v>
       </c>
       <c r="I380" t="b">
         <v>1</v>
@@ -18216,7 +17943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>380</v>
       </c>
@@ -18254,7 +17981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>381</v>
       </c>
@@ -18292,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>382</v>
       </c>
@@ -18314,8 +18041,8 @@
       <c r="G383">
         <v>6</v>
       </c>
-      <c r="H383" t="s">
-        <v>885</v>
+      <c r="H383">
+        <v>0</v>
       </c>
       <c r="I383" t="b">
         <v>1</v>
@@ -18330,7 +18057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>383</v>
       </c>
@@ -18352,8 +18079,8 @@
       <c r="G384">
         <v>2</v>
       </c>
-      <c r="H384" t="s">
-        <v>878</v>
+      <c r="H384">
+        <v>0</v>
       </c>
       <c r="I384" t="b">
         <v>1</v>
@@ -18368,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>384</v>
       </c>
@@ -18390,8 +18117,8 @@
       <c r="G385">
         <v>16</v>
       </c>
-      <c r="H385" t="s">
-        <v>950</v>
+      <c r="H385">
+        <v>0</v>
       </c>
       <c r="I385" t="b">
         <v>1</v>
@@ -18406,7 +18133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>385</v>
       </c>
@@ -18444,7 +18171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>386</v>
       </c>
@@ -18482,7 +18209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>387</v>
       </c>
@@ -18520,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>388</v>
       </c>
@@ -18558,7 +18285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>389</v>
       </c>
@@ -18596,7 +18323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>390</v>
       </c>
@@ -18618,8 +18345,8 @@
       <c r="G391">
         <v>26</v>
       </c>
-      <c r="H391" t="s">
-        <v>951</v>
+      <c r="H391">
+        <v>0</v>
       </c>
       <c r="I391" t="b">
         <v>1</v>
@@ -18634,7 +18361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>391</v>
       </c>
@@ -18656,8 +18383,8 @@
       <c r="G392">
         <v>20</v>
       </c>
-      <c r="H392" t="s">
-        <v>952</v>
+      <c r="H392">
+        <v>0</v>
       </c>
       <c r="I392" t="b">
         <v>1</v>
@@ -18672,7 +18399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>392</v>
       </c>
@@ -18694,8 +18421,8 @@
       <c r="G393">
         <v>41</v>
       </c>
-      <c r="H393" t="s">
-        <v>953</v>
+      <c r="H393">
+        <v>0</v>
       </c>
       <c r="I393" t="b">
         <v>1</v>
@@ -18710,7 +18437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>393</v>
       </c>
@@ -18732,8 +18459,8 @@
       <c r="G394">
         <v>15</v>
       </c>
-      <c r="H394" t="s">
-        <v>877</v>
+      <c r="H394">
+        <v>0</v>
       </c>
       <c r="I394" t="b">
         <v>1</v>
@@ -18748,7 +18475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>394</v>
       </c>
@@ -18770,8 +18497,8 @@
       <c r="G395">
         <v>1</v>
       </c>
-      <c r="H395" t="s">
-        <v>876</v>
+      <c r="H395">
+        <v>0</v>
       </c>
       <c r="I395" t="b">
         <v>0</v>
@@ -18786,7 +18513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>395</v>
       </c>
@@ -18824,7 +18551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>396</v>
       </c>
@@ -18862,7 +18589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>397</v>
       </c>
@@ -18884,8 +18611,8 @@
       <c r="G398">
         <v>4</v>
       </c>
-      <c r="H398" t="s">
-        <v>954</v>
+      <c r="H398">
+        <v>0</v>
       </c>
       <c r="I398" t="b">
         <v>1</v>
@@ -18900,7 +18627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>398</v>
       </c>
@@ -18922,8 +18649,8 @@
       <c r="G399">
         <v>9</v>
       </c>
-      <c r="H399" t="s">
-        <v>955</v>
+      <c r="H399">
+        <v>0</v>
       </c>
       <c r="I399" t="b">
         <v>1</v>
@@ -18938,7 +18665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>399</v>
       </c>
@@ -18976,7 +18703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>400</v>
       </c>
@@ -19014,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>401</v>
       </c>
@@ -19052,7 +18779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>402</v>
       </c>
@@ -19090,7 +18817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>403</v>
       </c>
@@ -19112,8 +18839,8 @@
       <c r="G404">
         <v>4</v>
       </c>
-      <c r="H404" t="s">
-        <v>956</v>
+      <c r="H404">
+        <v>0</v>
       </c>
       <c r="I404" t="b">
         <v>1</v>
@@ -19128,7 +18855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>404</v>
       </c>
@@ -19166,7 +18893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>405</v>
       </c>
@@ -19204,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>406</v>
       </c>
@@ -19242,7 +18969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>407</v>
       </c>
@@ -19264,8 +18991,8 @@
       <c r="G408">
         <v>0</v>
       </c>
-      <c r="H408" t="s">
-        <v>884</v>
+      <c r="H408">
+        <v>0</v>
       </c>
       <c r="I408" t="b">
         <v>1</v>
@@ -19280,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>408</v>
       </c>
@@ -19318,7 +19045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>409</v>
       </c>
@@ -19340,8 +19067,8 @@
       <c r="G410">
         <v>1</v>
       </c>
-      <c r="H410" t="s">
-        <v>880</v>
+      <c r="H410">
+        <v>0</v>
       </c>
       <c r="I410" t="b">
         <v>0</v>
@@ -19356,7 +19083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>410</v>
       </c>
@@ -19394,7 +19121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>411</v>
       </c>
@@ -19432,7 +19159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>412</v>
       </c>
@@ -19470,7 +19197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>413</v>
       </c>
@@ -19492,8 +19219,8 @@
       <c r="G414">
         <v>28</v>
       </c>
-      <c r="H414" t="s">
-        <v>957</v>
+      <c r="H414">
+        <v>0</v>
       </c>
       <c r="I414" t="b">
         <v>1</v>
@@ -19508,7 +19235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>414</v>
       </c>
@@ -19546,7 +19273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>415</v>
       </c>
@@ -19584,7 +19311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>416</v>
       </c>
@@ -19622,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>417</v>
       </c>
@@ -19660,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>418</v>
       </c>
@@ -19682,8 +19409,8 @@
       <c r="G419">
         <v>2</v>
       </c>
-      <c r="H419" t="s">
-        <v>880</v>
+      <c r="H419">
+        <v>0</v>
       </c>
       <c r="I419" t="b">
         <v>0</v>
@@ -19698,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>419</v>
       </c>
@@ -19720,8 +19447,8 @@
       <c r="G420">
         <v>11</v>
       </c>
-      <c r="H420" t="s">
-        <v>940</v>
+      <c r="H420">
+        <v>0</v>
       </c>
       <c r="I420" t="b">
         <v>1</v>
@@ -19736,7 +19463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>420</v>
       </c>
@@ -19758,8 +19485,8 @@
       <c r="G421">
         <v>1</v>
       </c>
-      <c r="H421" t="s">
-        <v>880</v>
+      <c r="H421">
+        <v>0</v>
       </c>
       <c r="I421" t="b">
         <v>0</v>

--- a/ProjetoES22/Long-Method.xlsx
+++ b/ProjetoES22/Long-Method.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\git\ES1-2019-IC1-22\ProjetoES22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C551C78-42BA-495C-852A-9CE0D5595CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04D456C-8DC9-46A4-B3BD-8C9CBCE40941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3485,8 +3485,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C407" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H427" sqref="H427"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3498,8 +3498,8 @@
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
